--- a/10/1/Tasa de Política Monetaria 2002 a 2021 - Mensual.xlsx
+++ b/10/1/Tasa de Política Monetaria 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Serie</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA236"/>
+  <dimension ref="A1:AA237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7116,6 +7119,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="237" spans="1:11">
+      <c r="A237" t="s">
+        <v>262</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1.25</v>
+      </c>
+      <c r="E237">
+        <v>1.5</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237">
+        <v>2.5</v>
+      </c>
+      <c r="H237">
+        <v>2.75</v>
+      </c>
+      <c r="I237">
+        <v>3.5</v>
+      </c>
+      <c r="J237">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Tasa de Política Monetaria 2002 a 2021 - Mensual.xlsx
+++ b/10/1/Tasa de Política Monetaria 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Serie</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA237"/>
+  <dimension ref="A1:AA238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7148,6 +7151,35 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="238" spans="1:11">
+      <c r="A238" t="s">
+        <v>263</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>2.25</v>
+      </c>
+      <c r="E238">
+        <v>2.75</v>
+      </c>
+      <c r="F238">
+        <v>3.5</v>
+      </c>
+      <c r="G238">
+        <v>3.5</v>
+      </c>
+      <c r="H238">
+        <v>3.75</v>
+      </c>
+      <c r="I238">
+        <v>3.5</v>
+      </c>
+      <c r="J238">
+        <v>2.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Tasa de Política Monetaria 2002 a 2021 - Mensual.xlsx
+++ b/10/1/Tasa de Política Monetaria 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>Serie</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA238"/>
+  <dimension ref="A1:AA239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7180,6 +7183,35 @@
         <v>2.25</v>
       </c>
     </row>
+    <row r="239" spans="1:11">
+      <c r="A239" t="s">
+        <v>264</v>
+      </c>
+      <c r="B239">
+        <v>2.25</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="E239">
+        <v>3.5</v>
+      </c>
+      <c r="F239">
+        <v>4</v>
+      </c>
+      <c r="G239">
+        <v>4.5</v>
+      </c>
+      <c r="H239">
+        <v>4.25</v>
+      </c>
+      <c r="I239">
+        <v>3.75</v>
+      </c>
+      <c r="J239">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
